--- a/docs/images/quals.xlsx
+++ b/docs/images/quals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\RadicalResearchLLC.github.io\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A268A9-B3F3-4D11-8F02-17FCFED3DDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCFDFD9-F5B4-4F9F-A32A-C8B96FA6FCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{FD25C649-7A8F-49AB-93E9-9BE5D1162BA7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="200">
   <si>
     <t>ProjectName</t>
   </si>
@@ -596,6 +596,45 @@
   </si>
   <si>
     <t>LADCO</t>
+  </si>
+  <si>
+    <t>Tacoma Warehouse Project</t>
+  </si>
+  <si>
+    <t>Earthjustice</t>
+  </si>
+  <si>
+    <t>Molly Tack-Hooper</t>
+  </si>
+  <si>
+    <t>mtackhooper@earthjustice.org</t>
+  </si>
+  <si>
+    <t>Rhyolite Ridge Boron-Lithium Project</t>
+  </si>
+  <si>
+    <t>Center for Biological Diversity</t>
+  </si>
+  <si>
+    <t>Patrick Donnelly</t>
+  </si>
+  <si>
+    <t>pdonnelly@biologicaldiversity.org</t>
+  </si>
+  <si>
+    <t>Litigation Support</t>
+  </si>
+  <si>
+    <t>Custom Warehouse FAR analysis</t>
+  </si>
+  <si>
+    <t>Lee and Associates</t>
+  </si>
+  <si>
+    <t>Craig Yocum</t>
+  </si>
+  <si>
+    <t>cyocum@lee-associates.com</t>
   </si>
 </sst>
 </file>
@@ -665,9 +704,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -705,7 +744,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -811,7 +850,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -953,7 +992,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -961,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B88CEE-E15A-479F-86DB-6540FAF7827F}">
-  <dimension ref="A1:W64"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +1016,7 @@
     <col min="6" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="162.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="162.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1047,34 +1086,45 @@
       <c r="W1" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="B2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -1082,48 +1132,59 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="W2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="B3">
         <v>2023</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="O3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="P3" s="2"/>
-      <c r="Q3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -1131,49 +1192,42 @@
         <v>9</v>
       </c>
       <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="B4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -1183,25 +1237,23 @@
       </c>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="E5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1213,38 +1265,30 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>9</v>
@@ -1252,20 +1296,20 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="R6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1277,51 +1321,49 @@
       </c>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B7">
         <v>2022</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="I7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="Q7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -1330,43 +1372,43 @@
       </c>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B8">
         <v>2022</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="2"/>
       <c r="S8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1377,87 +1419,85 @@
       </c>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B9">
         <v>2022</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="S9" s="2"/>
-      <c r="T9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
       <c r="V9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B10">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1468,197 +1508,235 @@
         <v>9</v>
       </c>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="R10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="B11">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="B12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="B13">
         <v>2021</v>
       </c>
       <c r="C13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14">
+        <v>2021</v>
+      </c>
+      <c r="C14" t="s">
         <v>158</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15">
+        <v>2021</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16">
+        <v>2021</v>
+      </c>
+      <c r="C16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" t="s">
-        <v>9</v>
-      </c>
-      <c r="N13" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>9</v>
-      </c>
-      <c r="R13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>2020</v>
-      </c>
-      <c r="C14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" t="s">
-        <v>9</v>
-      </c>
-      <c r="N14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>9</v>
-      </c>
-      <c r="R14" t="s">
-        <v>9</v>
-      </c>
-      <c r="W14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15">
-        <v>2020</v>
-      </c>
-      <c r="C15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" t="s">
-        <v>9</v>
-      </c>
-      <c r="N15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16">
-        <v>2020</v>
-      </c>
-      <c r="C16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="J16" t="s">
         <v>9</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
         <v>9</v>
       </c>
       <c r="N16" t="s">
         <v>9</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>9</v>
       </c>
       <c r="R16" t="s">
@@ -1667,19 +1745,19 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>2020</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -1687,98 +1765,101 @@
       <c r="G17" t="s">
         <v>9</v>
       </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
       <c r="I17" t="s">
         <v>9</v>
       </c>
       <c r="J17" t="s">
         <v>9</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>9</v>
       </c>
       <c r="M17" t="s">
         <v>9</v>
       </c>
+      <c r="N17" t="s">
+        <v>9</v>
+      </c>
       <c r="O17" t="s">
         <v>9</v>
       </c>
       <c r="P17" t="s">
         <v>9</v>
       </c>
+      <c r="Q17" t="s">
+        <v>9</v>
+      </c>
       <c r="R17" t="s">
+        <v>9</v>
+      </c>
+      <c r="W17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B18">
         <v>2020</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s">
-        <v>9</v>
+        <v>47</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="J18" t="s">
         <v>9</v>
       </c>
-      <c r="Q18" t="s">
-        <v>9</v>
-      </c>
-      <c r="R18" t="s">
+      <c r="N18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="B19">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" t="s">
         <v>9</v>
       </c>
       <c r="K19" t="s">
         <v>9</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>9</v>
       </c>
       <c r="P19" t="s">
         <v>9</v>
       </c>
-      <c r="T19" t="s">
+      <c r="R19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C20" t="s">
         <v>167</v>
@@ -1789,9 +1870,21 @@
       <c r="E20" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" t="s">
+        <v>9</v>
+      </c>
       <c r="J20" t="s">
         <v>9</v>
       </c>
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
       <c r="M20" t="s">
         <v>9</v>
       </c>
@@ -1801,33 +1894,33 @@
       <c r="P20" t="s">
         <v>9</v>
       </c>
-      <c r="W20" t="s">
+      <c r="R20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
       </c>
-      <c r="I21" t="s">
+      <c r="H21" t="s">
         <v>9</v>
       </c>
       <c r="J21" t="s">
         <v>9</v>
       </c>
-      <c r="N21" t="s">
+      <c r="Q21" t="s">
         <v>9</v>
       </c>
       <c r="R21" t="s">
@@ -1836,71 +1929,83 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="B22">
         <v>2019</v>
       </c>
       <c r="C22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" t="s">
-        <v>147</v>
-      </c>
-      <c r="J22" t="s">
-        <v>9</v>
-      </c>
-      <c r="N22" t="s">
-        <v>9</v>
-      </c>
-      <c r="O22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>2019</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="J23" t="s">
         <v>9</v>
       </c>
-      <c r="Q23" t="s">
-        <v>9</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="M23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" t="s">
+        <v>9</v>
+      </c>
+      <c r="W23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B24">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1911,81 +2016,84 @@
       <c r="J24" t="s">
         <v>9</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N24" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B25">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>86</v>
+        <v>146</v>
+      </c>
+      <c r="E25" t="s">
+        <v>147</v>
       </c>
       <c r="J25" t="s">
         <v>9</v>
       </c>
-      <c r="Q25" t="s">
-        <v>9</v>
-      </c>
-      <c r="R25" t="s">
+      <c r="N25" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="M26" t="s">
-        <v>9</v>
-      </c>
-      <c r="O26" t="s">
-        <v>9</v>
-      </c>
-      <c r="P26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>9</v>
+      </c>
+      <c r="S26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B27">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
       </c>
-      <c r="H27" t="s">
-        <v>9</v>
-      </c>
       <c r="I27" t="s">
         <v>9</v>
       </c>
@@ -1993,38 +2101,29 @@
         <v>9</v>
       </c>
       <c r="L27" t="s">
-        <v>9</v>
-      </c>
-      <c r="P27" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>9</v>
-      </c>
-      <c r="R27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B28">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" t="s">
-        <v>9</v>
+        <v>85</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="J28" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q28" t="s">
         <v>9</v>
       </c>
       <c r="R28" t="s">
@@ -2033,222 +2132,234 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="B29">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="M29" t="s">
         <v>9</v>
       </c>
+      <c r="O29" t="s">
+        <v>9</v>
+      </c>
       <c r="P29" t="s">
-        <v>9</v>
-      </c>
-      <c r="T29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="B30">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" t="s">
         <v>9</v>
       </c>
       <c r="J30" t="s">
         <v>9</v>
       </c>
-      <c r="N30" t="s">
+      <c r="L30" t="s">
+        <v>9</v>
+      </c>
+      <c r="P30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>9</v>
+      </c>
+      <c r="R30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B31">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N31" t="s">
-        <v>9</v>
-      </c>
-      <c r="O31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" t="s">
+        <v>9</v>
+      </c>
+      <c r="R31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B32">
         <v>2016</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
-      </c>
-      <c r="G32" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
       <c r="J32" t="s">
         <v>9</v>
       </c>
+      <c r="K32" t="s">
+        <v>9</v>
+      </c>
       <c r="M32" t="s">
         <v>9</v>
       </c>
-      <c r="Q32" t="s">
-        <v>9</v>
-      </c>
-      <c r="W32" t="s">
+      <c r="P32" t="s">
+        <v>9</v>
+      </c>
+      <c r="T32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B33">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C33" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
       </c>
       <c r="J33" t="s">
         <v>9</v>
       </c>
-      <c r="M33" t="s">
-        <v>9</v>
-      </c>
-      <c r="P33" t="s">
-        <v>9</v>
-      </c>
-      <c r="T33" t="s">
-        <v>9</v>
-      </c>
-      <c r="U33" t="s">
+      <c r="N33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="B34">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C34" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34" t="s">
+        <v>9</v>
+      </c>
+      <c r="O34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="B35">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G35" s="2"/>
       <c r="J35" t="s">
         <v>9</v>
       </c>
+      <c r="M35" t="s">
+        <v>9</v>
+      </c>
       <c r="Q35" t="s">
+        <v>9</v>
+      </c>
+      <c r="W35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="B36">
         <v>2015</v>
       </c>
       <c r="C36" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J36" t="s">
         <v>9</v>
       </c>
       <c r="M36" t="s">
+        <v>9</v>
+      </c>
+      <c r="P36" t="s">
         <v>9</v>
       </c>
       <c r="T36" t="s">
@@ -2260,106 +2371,73 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="B37">
         <v>2015</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>57</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
       </c>
-      <c r="G37" t="s">
-        <v>9</v>
-      </c>
       <c r="H37" t="s">
         <v>9</v>
       </c>
-      <c r="I37" t="s">
-        <v>9</v>
-      </c>
       <c r="J37" t="s">
         <v>9</v>
       </c>
       <c r="K37" t="s">
-        <v>9</v>
-      </c>
-      <c r="L37" t="s">
-        <v>9</v>
-      </c>
-      <c r="N37" t="s">
-        <v>9</v>
-      </c>
-      <c r="O37" t="s">
-        <v>9</v>
-      </c>
-      <c r="P37" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q37" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B38">
         <v>2015</v>
       </c>
       <c r="C38" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="J38" t="s">
         <v>9</v>
       </c>
-      <c r="K38" t="s">
-        <v>9</v>
-      </c>
-      <c r="L38" t="s">
-        <v>9</v>
-      </c>
-      <c r="T38" t="s">
+      <c r="Q38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B39">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C39" t="s">
         <v>179</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="J39" t="s">
         <v>9</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="M39" t="s">
         <v>9</v>
       </c>
       <c r="T39" t="s">
@@ -2371,21 +2449,36 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="B40">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>121</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" t="s">
+        <v>9</v>
       </c>
       <c r="J40" t="s">
         <v>9</v>
       </c>
-      <c r="M40" t="s">
+      <c r="K40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" t="s">
         <v>9</v>
       </c>
       <c r="N40" t="s">
@@ -2395,61 +2488,67 @@
         <v>9</v>
       </c>
       <c r="P40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q40" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="B41">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>22</v>
+        <v>122</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" t="s">
+        <v>9</v>
       </c>
       <c r="J41" t="s">
         <v>9</v>
       </c>
-      <c r="M41" t="s">
-        <v>9</v>
-      </c>
-      <c r="P41" t="s">
+      <c r="K41" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" t="s">
         <v>9</v>
       </c>
       <c r="T41" t="s">
-        <v>9</v>
-      </c>
-      <c r="U41" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B42">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J42" t="s">
         <v>9</v>
       </c>
-      <c r="M42" t="s">
+      <c r="Q42" t="s">
         <v>9</v>
       </c>
       <c r="T42" t="s">
@@ -2461,94 +2560,97 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B43">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="J43" t="s">
         <v>9</v>
       </c>
-      <c r="K43" t="s">
-        <v>9</v>
-      </c>
-      <c r="T43" t="s">
-        <v>9</v>
-      </c>
-      <c r="U43" t="s">
+      <c r="M43" t="s">
+        <v>9</v>
+      </c>
+      <c r="N43" t="s">
+        <v>9</v>
+      </c>
+      <c r="O43" t="s">
+        <v>9</v>
+      </c>
+      <c r="P43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B44">
         <v>2013</v>
       </c>
       <c r="C44" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J44" t="s">
         <v>9</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
+        <v>9</v>
+      </c>
+      <c r="P44" t="s">
+        <v>9</v>
+      </c>
+      <c r="T44" t="s">
+        <v>9</v>
+      </c>
+      <c r="U44" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B45">
         <v>2013</v>
       </c>
       <c r="C45" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>16</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J45" t="s">
         <v>9</v>
       </c>
-      <c r="N45" t="s">
-        <v>9</v>
-      </c>
-      <c r="P45" t="s">
+      <c r="M45" t="s">
+        <v>9</v>
+      </c>
+      <c r="T45" t="s">
+        <v>9</v>
+      </c>
+      <c r="U45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="B46">
         <v>2013</v>
@@ -2562,13 +2664,19 @@
       <c r="E46" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
       <c r="J46" t="s">
         <v>9</v>
       </c>
-      <c r="M46" t="s">
-        <v>9</v>
-      </c>
-      <c r="P46" t="s">
+      <c r="K46" t="s">
+        <v>9</v>
+      </c>
+      <c r="T46" t="s">
         <v>9</v>
       </c>
       <c r="U46" t="s">
@@ -2577,137 +2685,146 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="B47">
         <v>2013</v>
       </c>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="D47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>9</v>
       </c>
       <c r="J47" t="s">
         <v>9</v>
       </c>
-      <c r="M47" t="s">
-        <v>9</v>
-      </c>
-      <c r="P47" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>9</v>
-      </c>
-      <c r="W47" t="s">
+      <c r="L47" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48">
+        <v>2013</v>
+      </c>
+      <c r="C48" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" t="s">
+        <v>150</v>
+      </c>
+      <c r="J48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48" t="s">
+        <v>9</v>
+      </c>
+      <c r="P48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49">
+        <v>2013</v>
+      </c>
+      <c r="C49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" t="s">
+        <v>9</v>
+      </c>
+      <c r="M49" t="s">
+        <v>9</v>
+      </c>
+      <c r="P49" t="s">
+        <v>9</v>
+      </c>
+      <c r="U49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50">
+        <v>2013</v>
+      </c>
+      <c r="C50" t="s">
+        <v>182</v>
+      </c>
+      <c r="J50" t="s">
+        <v>9</v>
+      </c>
+      <c r="M50" t="s">
+        <v>9</v>
+      </c>
+      <c r="P50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>24</v>
       </c>
-      <c r="B48">
+      <c r="B51">
         <v>2012</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C51" t="s">
         <v>163</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D51" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J48" t="s">
-        <v>9</v>
-      </c>
-      <c r="M48" t="s">
-        <v>9</v>
-      </c>
-      <c r="T48" t="s">
-        <v>9</v>
-      </c>
-      <c r="U48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="J51" t="s">
+        <v>9</v>
+      </c>
+      <c r="M51" t="s">
+        <v>9</v>
+      </c>
+      <c r="T51" t="s">
+        <v>9</v>
+      </c>
+      <c r="U51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>117</v>
       </c>
-      <c r="B49">
+      <c r="B52">
         <v>2012</v>
-      </c>
-      <c r="C49" t="s">
-        <v>158</v>
-      </c>
-      <c r="D49" t="s">
-        <v>151</v>
-      </c>
-      <c r="I49" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>9</v>
-      </c>
-      <c r="S49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50">
-        <v>2011</v>
-      </c>
-      <c r="C50" t="s">
-        <v>176</v>
-      </c>
-      <c r="D50" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J50" t="s">
-        <v>9</v>
-      </c>
-      <c r="K50" t="s">
-        <v>9</v>
-      </c>
-      <c r="T50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51">
-        <v>2011</v>
-      </c>
-      <c r="C51" t="s">
-        <v>158</v>
-      </c>
-      <c r="D51" t="s">
-        <v>151</v>
-      </c>
-      <c r="I51" t="s">
-        <v>9</v>
-      </c>
-      <c r="P51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>118</v>
-      </c>
-      <c r="B52">
-        <v>2011</v>
       </c>
       <c r="C52" t="s">
         <v>158</v>
@@ -2718,9 +2835,6 @@
       <c r="I52" t="s">
         <v>9</v>
       </c>
-      <c r="P52" t="s">
-        <v>9</v>
-      </c>
       <c r="Q52" t="s">
         <v>9</v>
       </c>
@@ -2728,102 +2842,87 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B53">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C53" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" t="s">
+        <v>9</v>
+      </c>
+      <c r="T53" t="s">
+        <v>9</v>
+      </c>
+      <c r="U53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54">
+        <v>2011</v>
+      </c>
+      <c r="C54" t="s">
         <v>158</v>
       </c>
-      <c r="D53" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F53" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" t="s">
-        <v>9</v>
-      </c>
-      <c r="J53" t="s">
-        <v>9</v>
-      </c>
-      <c r="L53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54">
-        <v>2009</v>
-      </c>
-      <c r="C54" t="s">
-        <v>159</v>
-      </c>
       <c r="D54" t="s">
-        <v>142</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="I54" t="s">
         <v>9</v>
       </c>
-      <c r="J54" t="s">
-        <v>9</v>
-      </c>
-      <c r="L54" t="s">
-        <v>9</v>
-      </c>
-      <c r="O54" t="s">
-        <v>9</v>
-      </c>
       <c r="P54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B55">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C55" t="s">
         <v>158</v>
       </c>
       <c r="D55" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J55" t="s">
-        <v>9</v>
-      </c>
-      <c r="M55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="I55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P55" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>9</v>
+      </c>
+      <c r="S55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C56" t="s">
         <v>158</v>
@@ -2837,6 +2936,9 @@
       <c r="F56" t="s">
         <v>9</v>
       </c>
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
       <c r="H56" t="s">
         <v>9</v>
       </c>
@@ -2846,169 +2948,184 @@
       <c r="J56" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="B57">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D57" t="s">
-        <v>113</v>
-      </c>
-      <c r="E57" t="s">
-        <v>155</v>
+        <v>142</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I57" t="s">
+        <v>9</v>
       </c>
       <c r="J57" t="s">
         <v>9</v>
       </c>
-      <c r="M57" t="s">
+      <c r="L57" t="s">
+        <v>9</v>
+      </c>
+      <c r="O57" t="s">
         <v>9</v>
       </c>
       <c r="P57" t="s">
         <v>9</v>
       </c>
-      <c r="S57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B58">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C58" t="s">
         <v>158</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" t="s">
-        <v>9</v>
-      </c>
-      <c r="I58" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="J58" t="s">
         <v>9</v>
       </c>
-      <c r="L58" t="s">
-        <v>9</v>
-      </c>
-      <c r="P58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B59">
         <v>2007</v>
       </c>
       <c r="C59" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" t="s">
+        <v>9</v>
+      </c>
+      <c r="J59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60">
+        <v>2007</v>
+      </c>
+      <c r="C60" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" t="s">
+        <v>155</v>
+      </c>
+      <c r="J60" t="s">
+        <v>9</v>
+      </c>
+      <c r="M60" t="s">
+        <v>9</v>
+      </c>
+      <c r="P60" t="s">
+        <v>9</v>
+      </c>
+      <c r="S60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61">
+        <v>2007</v>
+      </c>
+      <c r="C61" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" t="s">
+        <v>9</v>
+      </c>
+      <c r="L61" t="s">
+        <v>9</v>
+      </c>
+      <c r="P61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62">
+        <v>2007</v>
+      </c>
+      <c r="C62" t="s">
         <v>183</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D62" t="s">
         <v>152</v>
       </c>
-      <c r="I59" t="s">
-        <v>9</v>
-      </c>
-      <c r="J59" t="s">
-        <v>9</v>
-      </c>
-      <c r="L59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="I62" t="s">
+        <v>9</v>
+      </c>
+      <c r="J62" t="s">
+        <v>9</v>
+      </c>
+      <c r="L62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>70</v>
-      </c>
-      <c r="B60">
-        <v>2006</v>
-      </c>
-      <c r="C60" t="s">
-        <v>184</v>
-      </c>
-      <c r="D60" t="s">
-        <v>153</v>
-      </c>
-      <c r="F60" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" t="s">
-        <v>9</v>
-      </c>
-      <c r="P60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61">
-        <v>2006</v>
-      </c>
-      <c r="C61" t="s">
-        <v>185</v>
-      </c>
-      <c r="D61" t="s">
-        <v>72</v>
-      </c>
-      <c r="F61" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" t="s">
-        <v>9</v>
-      </c>
-      <c r="N61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62">
-        <v>2006</v>
-      </c>
-      <c r="C62" t="s">
-        <v>184</v>
-      </c>
-      <c r="D62" t="s">
-        <v>153</v>
-      </c>
-      <c r="F62" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" t="s">
-        <v>9</v>
-      </c>
-      <c r="J62" t="s">
-        <v>9</v>
-      </c>
-      <c r="P62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>74</v>
       </c>
       <c r="B63">
         <v>2006</v>
@@ -3019,86 +3136,161 @@
       <c r="D63" t="s">
         <v>153</v>
       </c>
-      <c r="J63" t="s">
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
         <v>9</v>
       </c>
       <c r="P63" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B64">
         <v>2006</v>
       </c>
       <c r="C64" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64" t="s">
+        <v>72</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>9</v>
+      </c>
+      <c r="N64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65">
+        <v>2006</v>
+      </c>
+      <c r="C65" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" t="s">
+        <v>153</v>
+      </c>
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65" t="s">
+        <v>9</v>
+      </c>
+      <c r="P65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66">
+        <v>2006</v>
+      </c>
+      <c r="C66" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" t="s">
+        <v>153</v>
+      </c>
+      <c r="J66" t="s">
+        <v>9</v>
+      </c>
+      <c r="P66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67">
+        <v>2006</v>
+      </c>
+      <c r="C67" t="s">
         <v>186</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D67" t="s">
         <v>154</v>
       </c>
-      <c r="F64" t="s">
-        <v>9</v>
-      </c>
-      <c r="I64" t="s">
-        <v>9</v>
-      </c>
-      <c r="J64" t="s">
-        <v>9</v>
-      </c>
-      <c r="L64" t="s">
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" t="s">
+        <v>9</v>
+      </c>
+      <c r="J67" t="s">
+        <v>9</v>
+      </c>
+      <c r="L67" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W64">
-    <sortCondition descending="1" ref="B2:B64"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:W67">
+    <sortCondition descending="1" ref="B5:B67"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1" xr:uid="{3D1E9692-8274-415A-B34C-8FF8F8EC67E0}"/>
-    <hyperlink ref="E19" r:id="rId2" xr:uid="{4EAE07F9-0282-4F78-97E9-0DAF038A1F78}"/>
-    <hyperlink ref="E29" r:id="rId3" xr:uid="{BAF15456-EB6B-43BD-96D3-ED4682A1D73E}"/>
-    <hyperlink ref="E33" r:id="rId4" xr:uid="{40A5C76A-F4A7-4B07-9F78-4D2F75EBCB46}"/>
-    <hyperlink ref="E41" r:id="rId5" xr:uid="{2144AEF5-FC6C-4A21-877F-FE118DBC87D6}"/>
-    <hyperlink ref="E42" r:id="rId6" xr:uid="{23F1E242-7AE2-4ACA-9C33-1086DCFFA24F}"/>
-    <hyperlink ref="E48" r:id="rId7" xr:uid="{045B2ADE-7493-4072-A2DA-6E0239465D3D}"/>
-    <hyperlink ref="E50" r:id="rId8" xr:uid="{5D6FBFE8-A793-43B1-98DF-00C143585062}"/>
-    <hyperlink ref="E43" r:id="rId9" xr:uid="{ED7FA3BD-ACA5-4E7A-8564-8989097075B7}"/>
-    <hyperlink ref="E15" r:id="rId10" xr:uid="{F793576A-1270-41FA-AFAF-575BF4BF1498}"/>
-    <hyperlink ref="E16" r:id="rId11" xr:uid="{46568639-9DC5-44D9-8751-5FC3EA453AE0}"/>
-    <hyperlink ref="E17" r:id="rId12" xr:uid="{764C4A04-F81F-4A3F-AAE3-FBB345F426C5}"/>
-    <hyperlink ref="E20" r:id="rId13" xr:uid="{7DCE0869-B332-4949-98B6-58791D8CBF63}"/>
-    <hyperlink ref="E30" r:id="rId14" xr:uid="{FF0CF560-9C7C-4767-A3AD-37A10CF8CA7E}"/>
-    <hyperlink ref="E34" r:id="rId15" xr:uid="{4E23AFDA-ED8E-446C-8ED2-39CFF1A8D13C}"/>
-    <hyperlink ref="E44" r:id="rId16" xr:uid="{AE3EBC5C-5AEF-4581-A4B5-CD81EF832FE2}"/>
-    <hyperlink ref="E53" r:id="rId17" xr:uid="{9A3F4504-C9E8-4F39-81F3-EFCC65F32802}"/>
-    <hyperlink ref="E56" r:id="rId18" xr:uid="{D6844D27-3A6B-4A89-A74B-2D0B7438F8FD}"/>
-    <hyperlink ref="E24" r:id="rId19" xr:uid="{AFBBA670-C300-4B97-9E7B-1395ABECA115}"/>
-    <hyperlink ref="E25" r:id="rId20" xr:uid="{22679A97-CB73-405B-833C-B98CA98B2506}"/>
-    <hyperlink ref="E11" r:id="rId21" xr:uid="{4A57C5B1-9D28-4A84-B422-386AE8E9899C}"/>
-    <hyperlink ref="E12" r:id="rId22" xr:uid="{F019F960-B72C-4E6C-BEAD-7B1761072711}"/>
-    <hyperlink ref="E13" r:id="rId23" xr:uid="{0B288C78-07DF-40A1-AB33-14B088707AB2}"/>
-    <hyperlink ref="E27" r:id="rId24" xr:uid="{715B12A8-8197-48CA-AE00-8ADCBD97F6F0}"/>
-    <hyperlink ref="E31" r:id="rId25" xr:uid="{254C50AD-2A47-4DD6-A3AF-9F024E53A030}"/>
-    <hyperlink ref="E36" r:id="rId26" xr:uid="{7A0AE2F2-AA9C-4E26-9A7C-7D641AC00574}"/>
-    <hyperlink ref="E46" r:id="rId27" xr:uid="{AE5CC442-4866-4D9E-988A-77A8969D100C}"/>
-    <hyperlink ref="E55" r:id="rId28" xr:uid="{81F6EE52-22A8-4973-A4A1-FF0950094DCE}"/>
-    <hyperlink ref="E23" r:id="rId29" xr:uid="{4EFC6FF4-08E9-45F9-9BFC-1AA3FB99BDB0}"/>
-    <hyperlink ref="E10" r:id="rId30" xr:uid="{5941ED44-8077-4666-8424-48470E22E6A4}"/>
-    <hyperlink ref="E9" r:id="rId31" xr:uid="{3B2BB1A6-73B8-475B-980B-A2F34221F52B}"/>
-    <hyperlink ref="E8" r:id="rId32" xr:uid="{D0339F02-895C-4681-AC54-5755A9FA2150}"/>
-    <hyperlink ref="E7" r:id="rId33" xr:uid="{107D0466-9E28-4307-BBBF-2AA928387D17}"/>
-    <hyperlink ref="E6" r:id="rId34" xr:uid="{E7644B05-6A87-4E34-8D28-30C48D5657DF}"/>
-    <hyperlink ref="E5" r:id="rId35" xr:uid="{3B0A26F5-56E3-4E85-870B-E6038C28761E}"/>
-    <hyperlink ref="E3" r:id="rId36" xr:uid="{31C443A9-B3C5-4112-A1A4-84E3AAB75238}"/>
-    <hyperlink ref="E4" r:id="rId37" xr:uid="{F10D66CC-7769-4F8C-A484-9BCD1CC3769A}"/>
-    <hyperlink ref="E58" r:id="rId38" xr:uid="{41C1D846-F5D4-4D8F-A936-2CCA2A437FC5}"/>
-    <hyperlink ref="E54" r:id="rId39" xr:uid="{39ACE958-852B-4DB4-B49C-84D01F8D7926}"/>
+    <hyperlink ref="E17" r:id="rId1" xr:uid="{3D1E9692-8274-415A-B34C-8FF8F8EC67E0}"/>
+    <hyperlink ref="E22" r:id="rId2" xr:uid="{4EAE07F9-0282-4F78-97E9-0DAF038A1F78}"/>
+    <hyperlink ref="E32" r:id="rId3" xr:uid="{BAF15456-EB6B-43BD-96D3-ED4682A1D73E}"/>
+    <hyperlink ref="E36" r:id="rId4" xr:uid="{40A5C76A-F4A7-4B07-9F78-4D2F75EBCB46}"/>
+    <hyperlink ref="E44" r:id="rId5" xr:uid="{2144AEF5-FC6C-4A21-877F-FE118DBC87D6}"/>
+    <hyperlink ref="E45" r:id="rId6" xr:uid="{23F1E242-7AE2-4ACA-9C33-1086DCFFA24F}"/>
+    <hyperlink ref="E51" r:id="rId7" xr:uid="{045B2ADE-7493-4072-A2DA-6E0239465D3D}"/>
+    <hyperlink ref="E53" r:id="rId8" xr:uid="{5D6FBFE8-A793-43B1-98DF-00C143585062}"/>
+    <hyperlink ref="E46" r:id="rId9" xr:uid="{ED7FA3BD-ACA5-4E7A-8564-8989097075B7}"/>
+    <hyperlink ref="E18" r:id="rId10" xr:uid="{F793576A-1270-41FA-AFAF-575BF4BF1498}"/>
+    <hyperlink ref="E19" r:id="rId11" xr:uid="{46568639-9DC5-44D9-8751-5FC3EA453AE0}"/>
+    <hyperlink ref="E20" r:id="rId12" xr:uid="{764C4A04-F81F-4A3F-AAE3-FBB345F426C5}"/>
+    <hyperlink ref="E23" r:id="rId13" xr:uid="{7DCE0869-B332-4949-98B6-58791D8CBF63}"/>
+    <hyperlink ref="E33" r:id="rId14" xr:uid="{FF0CF560-9C7C-4767-A3AD-37A10CF8CA7E}"/>
+    <hyperlink ref="E37" r:id="rId15" xr:uid="{4E23AFDA-ED8E-446C-8ED2-39CFF1A8D13C}"/>
+    <hyperlink ref="E47" r:id="rId16" xr:uid="{AE3EBC5C-5AEF-4581-A4B5-CD81EF832FE2}"/>
+    <hyperlink ref="E56" r:id="rId17" xr:uid="{9A3F4504-C9E8-4F39-81F3-EFCC65F32802}"/>
+    <hyperlink ref="E59" r:id="rId18" xr:uid="{D6844D27-3A6B-4A89-A74B-2D0B7438F8FD}"/>
+    <hyperlink ref="E27" r:id="rId19" xr:uid="{AFBBA670-C300-4B97-9E7B-1395ABECA115}"/>
+    <hyperlink ref="E28" r:id="rId20" xr:uid="{22679A97-CB73-405B-833C-B98CA98B2506}"/>
+    <hyperlink ref="E14" r:id="rId21" xr:uid="{4A57C5B1-9D28-4A84-B422-386AE8E9899C}"/>
+    <hyperlink ref="E15" r:id="rId22" xr:uid="{F019F960-B72C-4E6C-BEAD-7B1761072711}"/>
+    <hyperlink ref="E16" r:id="rId23" xr:uid="{0B288C78-07DF-40A1-AB33-14B088707AB2}"/>
+    <hyperlink ref="E30" r:id="rId24" xr:uid="{715B12A8-8197-48CA-AE00-8ADCBD97F6F0}"/>
+    <hyperlink ref="E34" r:id="rId25" xr:uid="{254C50AD-2A47-4DD6-A3AF-9F024E53A030}"/>
+    <hyperlink ref="E39" r:id="rId26" xr:uid="{7A0AE2F2-AA9C-4E26-9A7C-7D641AC00574}"/>
+    <hyperlink ref="E49" r:id="rId27" xr:uid="{AE5CC442-4866-4D9E-988A-77A8969D100C}"/>
+    <hyperlink ref="E58" r:id="rId28" xr:uid="{81F6EE52-22A8-4973-A4A1-FF0950094DCE}"/>
+    <hyperlink ref="E26" r:id="rId29" xr:uid="{4EFC6FF4-08E9-45F9-9BFC-1AA3FB99BDB0}"/>
+    <hyperlink ref="E13" r:id="rId30" xr:uid="{5941ED44-8077-4666-8424-48470E22E6A4}"/>
+    <hyperlink ref="E12" r:id="rId31" xr:uid="{3B2BB1A6-73B8-475B-980B-A2F34221F52B}"/>
+    <hyperlink ref="E11" r:id="rId32" xr:uid="{D0339F02-895C-4681-AC54-5755A9FA2150}"/>
+    <hyperlink ref="E10" r:id="rId33" xr:uid="{107D0466-9E28-4307-BBBF-2AA928387D17}"/>
+    <hyperlink ref="E9" r:id="rId34" xr:uid="{E7644B05-6A87-4E34-8D28-30C48D5657DF}"/>
+    <hyperlink ref="E8" r:id="rId35" xr:uid="{3B0A26F5-56E3-4E85-870B-E6038C28761E}"/>
+    <hyperlink ref="E6" r:id="rId36" xr:uid="{31C443A9-B3C5-4112-A1A4-84E3AAB75238}"/>
+    <hyperlink ref="E7" r:id="rId37" xr:uid="{F10D66CC-7769-4F8C-A484-9BCD1CC3769A}"/>
+    <hyperlink ref="E61" r:id="rId38" xr:uid="{41C1D846-F5D4-4D8F-A936-2CCA2A437FC5}"/>
+    <hyperlink ref="E57" r:id="rId39" xr:uid="{39ACE958-852B-4DB4-B49C-84D01F8D7926}"/>
+    <hyperlink ref="E3" r:id="rId40" xr:uid="{F4EA7640-93FA-454D-A558-2EABE5822318}"/>
+    <hyperlink ref="E2" r:id="rId41" xr:uid="{507D4234-4446-40B3-B678-EFA25CB0FD63}"/>
+    <hyperlink ref="E4" r:id="rId42" xr:uid="{DE443F70-137B-4EBF-92EE-DF628D9EF4E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
 
